--- a/results/F1_score.xlsx
+++ b/results/F1_score.xlsx
@@ -426,13 +426,13 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>0.7177299703264096</v>
+        <v>0.7142396907216495</v>
       </c>
       <c r="E2">
-        <v>0.1562969642320409</v>
+        <v>0.3294259092275322</v>
       </c>
       <c r="F2">
-        <v>8.294716835021973</v>
+        <v>33.71680450439453</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -446,13 +446,13 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>0.7034191317710334</v>
+        <v>0.7181534189517529</v>
       </c>
       <c r="E3">
-        <v>0.1166215810039075</v>
+        <v>0.2329425909227532</v>
       </c>
       <c r="F3">
-        <v>7.524589538574219</v>
+        <v>8.856720209121704</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -466,13 +466,13 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.690625</v>
+        <v>0.6933381607530775</v>
       </c>
       <c r="E4">
-        <v>0.09828674481514876</v>
+        <v>0.18214607754734</v>
       </c>
       <c r="F4">
-        <v>7.759296178817749</v>
+        <v>19.42382645606995</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -486,13 +486,13 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>0.6866693515908175</v>
+        <v>0.7148854961832061</v>
       </c>
       <c r="E5">
-        <v>0.06492335437330921</v>
+        <v>0.12082957619477</v>
       </c>
       <c r="F5">
-        <v>8.604266166687012</v>
+        <v>24.33254051208496</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -506,13 +506,13 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.6972290138549307</v>
+        <v>0.6817288801571709</v>
       </c>
       <c r="E6">
-        <v>0.05290051097084469</v>
+        <v>0.08896904117823867</v>
       </c>
       <c r="F6">
-        <v>8.528848648071289</v>
+        <v>9.293727397918701</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -526,13 +526,13 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>0.6893283889575608</v>
+        <v>0.6794354838709677</v>
       </c>
       <c r="E7">
-        <v>0.04117823865344161</v>
+        <v>0.06191764352269313</v>
       </c>
       <c r="F7">
-        <v>7.801883697509766</v>
+        <v>10.21390008926392</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -546,13 +546,13 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.702198257984239</v>
+        <v>0.6960424316605467</v>
       </c>
       <c r="E8">
-        <v>0.03456567478208594</v>
+        <v>0.04899308686504367</v>
       </c>
       <c r="F8">
-        <v>8.639177322387695</v>
+        <v>12.4629693031311</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -566,13 +566,13 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>0.6889830508474576</v>
+        <v>0.6924355777223608</v>
       </c>
       <c r="E9">
-        <v>0.01172227231740308</v>
+        <v>0.03005710850616161</v>
       </c>
       <c r="F9">
-        <v>9.725087642669678</v>
+        <v>10.29210257530212</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -586,13 +586,13 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>0.7042735042735043</v>
+        <v>0.6978114478114478</v>
       </c>
       <c r="E10">
-        <v>0.003907424105801027</v>
+        <v>0.01653140967838884</v>
       </c>
       <c r="F10">
-        <v>10.84765911102295</v>
+        <v>10.60035586357117</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -606,13 +606,13 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>0.6886792452830188</v>
+        <v>0.6782199400941378</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>14.99614548683167</v>
+        <v>11.14031624794006</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -626,13 +626,13 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <v>0.7960330578512397</v>
+        <v>0.7837354781054513</v>
       </c>
       <c r="E12">
-        <v>0.5941654357459381</v>
+        <v>0.7658788774002954</v>
       </c>
       <c r="F12">
-        <v>29.75950145721436</v>
+        <v>11.09921455383301</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -646,13 +646,13 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>0.823953823953824</v>
+        <v>0.8025587828492393</v>
       </c>
       <c r="E13">
-        <v>0.4601181683899558</v>
+        <v>0.5192023633677991</v>
       </c>
       <c r="F13">
-        <v>17.83674573898315</v>
+        <v>10.62002921104431</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -666,13 +666,13 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <v>0.8082086689681627</v>
+        <v>0.7520476545048399</v>
       </c>
       <c r="E14">
-        <v>0.3737075332348596</v>
+        <v>0.4124815361890695</v>
       </c>
       <c r="F14">
-        <v>8.628441333770752</v>
+        <v>10.65996122360229</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -686,13 +686,13 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.8064777327935223</v>
+        <v>0.7673207849419303</v>
       </c>
       <c r="E15">
-        <v>0.3016986706056131</v>
+        <v>0.3127769571639587</v>
       </c>
       <c r="F15">
-        <v>11.01598024368286</v>
+        <v>9.635603427886963</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -706,13 +706,13 @@
         <v>6</v>
       </c>
       <c r="D16">
-        <v>0.827970827970828</v>
+        <v>0.7581395348837209</v>
       </c>
       <c r="E16">
-        <v>0.2285819793205317</v>
+        <v>0.2415066469719349</v>
       </c>
       <c r="F16">
-        <v>9.320797204971313</v>
+        <v>8.75971508026123</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -726,13 +726,13 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>0.8208221626452189</v>
+        <v>0.8214445939883356</v>
       </c>
       <c r="E17">
-        <v>0.1787296898079764</v>
+        <v>0.1702363367799113</v>
       </c>
       <c r="F17">
-        <v>9.837485313415527</v>
+        <v>9.333773851394653</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -746,13 +746,13 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>0.8121755545068429</v>
+        <v>0.7729422894985809</v>
       </c>
       <c r="E18">
-        <v>0.1163220088626293</v>
+        <v>0.1100443131462334</v>
       </c>
       <c r="F18">
-        <v>8.934879779815674</v>
+        <v>8.780735492706299</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -766,13 +766,13 @@
         <v>6</v>
       </c>
       <c r="D19">
-        <v>0.8032544378698225</v>
+        <v>0.6962087641555884</v>
       </c>
       <c r="E19">
-        <v>0.06831610044313141</v>
+        <v>0.06536189069423926</v>
       </c>
       <c r="F19">
-        <v>8.990751504898071</v>
+        <v>8.733508586883545</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -786,13 +786,13 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>0.7608476286579213</v>
+        <v>0.7209183673469388</v>
       </c>
       <c r="E20">
-        <v>0.04394387001477096</v>
+        <v>0.02880354505169858</v>
       </c>
       <c r="F20">
-        <v>19.25595545768738</v>
+        <v>10.3495991230011</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -806,13 +806,13 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <v>0.8083201685097421</v>
+        <v>0.7492130115424974</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.36315751075745</v>
+        <v>14.28438377380371</v>
       </c>
     </row>
   </sheetData>

--- a/results/F1_score.xlsx
+++ b/results/F1_score.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="10">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>Winner Membership Closeness</t>
   </si>
@@ -35,6 +38,12 @@
   </si>
   <si>
     <t>Cora</t>
+  </si>
+  <si>
+    <t>PubMed</t>
+  </si>
+  <si>
+    <t>WikiCS</t>
   </si>
 </sst>
 </file>
@@ -392,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,405 +423,928 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>0.1</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>0.7142396907216495</v>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>0.3294259092275322</v>
+        <v>0.7189260855154127</v>
       </c>
       <c r="F2">
-        <v>33.71680450439453</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.2933573790201383</v>
+      </c>
+      <c r="G2">
+        <v>46.08572626113892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>0.2</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>0.7181534189517529</v>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>0.2329425909227532</v>
+        <v>0.695697796432319</v>
       </c>
       <c r="F3">
-        <v>8.856720209121704</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.2257288848812744</v>
+      </c>
+      <c r="G3">
+        <v>6.080239057540894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>0.3</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>0.6933381607530775</v>
+      <c r="D4" t="s">
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>0.18214607754734</v>
+        <v>0.6939078751857355</v>
       </c>
       <c r="F4">
-        <v>19.42382645606995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.1526901112113015</v>
+      </c>
+      <c r="G4">
+        <v>5.27552318572998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>0.4</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>0.7148854961832061</v>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>0.12082957619477</v>
+        <v>0.6916796267496111</v>
       </c>
       <c r="F5">
-        <v>24.33254051208496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.1018935978358881</v>
+      </c>
+      <c r="G5">
+        <v>5.456994771957397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>0.5</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>0.6817288801571709</v>
+      <c r="D6" t="s">
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>0.08896904117823867</v>
+        <v>0.6671993607670795</v>
       </c>
       <c r="F6">
-        <v>9.293727397918701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.07243763149984961</v>
+      </c>
+      <c r="G6">
+        <v>5.293068647384644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>0.6</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>0.6794354838709677</v>
+      <c r="D7" t="s">
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>0.06191764352269313</v>
+        <v>0.7016260162601626</v>
       </c>
       <c r="F7">
-        <v>10.21390008926392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.05350165314096778</v>
+      </c>
+      <c r="G7">
+        <v>5.398998022079468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>0.7</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>0.6960424316605467</v>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>0.04899308686504367</v>
+        <v>0.6703658035347307</v>
       </c>
       <c r="F8">
-        <v>12.4629693031311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.042380522993688</v>
+      </c>
+      <c r="G8">
+        <v>5.388956069946289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>0.8</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>0.6924355777223608</v>
+      <c r="D9" t="s">
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>0.03005710850616161</v>
+        <v>0.686167989970748</v>
       </c>
       <c r="F9">
-        <v>10.29210257530212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.0255485422302375</v>
+      </c>
+      <c r="G9">
+        <v>5.424627542495728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>0.9</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>0.6978114478114478</v>
+      <c r="D10" t="s">
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>0.01653140967838884</v>
+        <v>0.7042670046472328</v>
       </c>
       <c r="F10">
-        <v>10.60035586357117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01412684099789607</v>
+      </c>
+      <c r="G10">
+        <v>5.88148021697998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>0.6782199400941378</v>
+      <c r="D11" t="s">
+        <v>6</v>
       </c>
       <c r="E11">
+        <v>0.6756640959725793</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="F11">
-        <v>11.14031624794006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>5.705260515213013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
         <v>0.1</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>0.7837354781054513</v>
+      <c r="D12" t="s">
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>0.7658788774002954</v>
+        <v>0.7806935332708529</v>
       </c>
       <c r="F12">
-        <v>11.09921455383301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.6864844903988183</v>
+      </c>
+      <c r="G12">
+        <v>6.366914749145508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
         <v>0.2</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>0.8025587828492393</v>
+      <c r="D13" t="s">
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>0.5192023633677991</v>
+        <v>0.8156028368794325</v>
       </c>
       <c r="F13">
-        <v>10.62002921104431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.4841211225997046</v>
+      </c>
+      <c r="G13">
+        <v>5.971061944961548</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
         <v>0.3</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>0.7520476545048399</v>
+      <c r="D14" t="s">
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>0.4124815361890695</v>
+        <v>0.7916346891788181</v>
       </c>
       <c r="F14">
-        <v>10.65996122360229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.3714918759231904</v>
+      </c>
+      <c r="G14">
+        <v>5.904686450958252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
         <v>0.4</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>0.7673207849419303</v>
+      <c r="D15" t="s">
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>0.3127769571639587</v>
+        <v>0.7811860940695295</v>
       </c>
       <c r="F15">
-        <v>9.635603427886963</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.2861890694239291</v>
+      </c>
+      <c r="G15">
+        <v>5.756431102752686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
         <v>0.5</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>0.7581395348837209</v>
+      <c r="D16" t="s">
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>0.2415066469719349</v>
+        <v>0.743225806451613</v>
       </c>
       <c r="F16">
-        <v>8.75971508026123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.223042836041359</v>
+      </c>
+      <c r="G16">
+        <v>5.699167728424072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
         <v>0.6</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>0.8214445939883356</v>
+      <c r="D17" t="s">
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>0.1702363367799113</v>
+        <v>0.7958818263205013</v>
       </c>
       <c r="F17">
-        <v>9.333773851394653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.1754062038404727</v>
+      </c>
+      <c r="G17">
+        <v>5.774042844772339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
         <v>0.7</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>0.7729422894985809</v>
+      <c r="D18" t="s">
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>0.1100443131462334</v>
+        <v>0.7947494033412887</v>
       </c>
       <c r="F18">
-        <v>8.780735492706299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.1019202363367799</v>
+      </c>
+      <c r="G18">
+        <v>5.768069744110107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
         <v>0.8</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>0.6962087641555884</v>
+      <c r="D19" t="s">
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>0.06536189069423926</v>
+        <v>0.8120039682539683</v>
       </c>
       <c r="F19">
-        <v>8.733508586883545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.06019202363367793</v>
+      </c>
+      <c r="G19">
+        <v>5.885817050933838</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
         <v>0.9</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>0.7209183673469388</v>
+      <c r="D20" t="s">
+        <v>7</v>
       </c>
       <c r="E20">
-        <v>0.02880354505169858</v>
+        <v>0.6963645673323092</v>
       </c>
       <c r="F20">
-        <v>10.3495991230011</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.0284342688330872</v>
+      </c>
+      <c r="G20">
+        <v>6.127270936965942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>0.7492130115424974</v>
+      <c r="D21" t="s">
+        <v>7</v>
       </c>
       <c r="E21">
+        <v>0.8013662637940094</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>14.28438377380371</v>
+      <c r="G21">
+        <v>6.352111339569092</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>0.8007051219273332</v>
+      </c>
+      <c r="F22">
+        <v>0.479484708627073</v>
+      </c>
+      <c r="G22">
+        <v>46.86830830574036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>0.8238899043113643</v>
+      </c>
+      <c r="F23">
+        <v>0.3475680884515899</v>
+      </c>
+      <c r="G23">
+        <v>48.3053035736084</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>0.8114524340712775</v>
+      </c>
+      <c r="F24">
+        <v>0.2664198407465639</v>
+      </c>
+      <c r="G24">
+        <v>47.16425752639771</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>0.7056894083969466</v>
+      </c>
+      <c r="F25">
+        <v>0.2148399857990566</v>
+      </c>
+      <c r="G25">
+        <v>47.6194486618042</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>0.7118121143432816</v>
+      </c>
+      <c r="F26">
+        <v>0.1505299994928235</v>
+      </c>
+      <c r="G26">
+        <v>49.72095561027527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>0.6698358947642615</v>
+      </c>
+      <c r="F27">
+        <v>0.1124410407262768</v>
+      </c>
+      <c r="G27">
+        <v>48.87950539588928</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>0.5500672043010753</v>
+      </c>
+      <c r="F28">
+        <v>0.07790231779682499</v>
+      </c>
+      <c r="G28">
+        <v>49.40165376663208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>0.5424678378752248</v>
+      </c>
+      <c r="F29">
+        <v>0.04726885428817762</v>
+      </c>
+      <c r="G29">
+        <v>48.01502084732056</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>0.6494310099573257</v>
+      </c>
+      <c r="F30">
+        <v>0.01851194400770906</v>
+      </c>
+      <c r="G30">
+        <v>46.20814800262451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>0.5338645418326693</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>45.7499144077301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>0.644323418516967</v>
+      </c>
+      <c r="F32">
+        <v>1.330570036748996</v>
+      </c>
+      <c r="G32">
+        <v>222.4064652919769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>0.6020226434295891</v>
+      </c>
+      <c r="F33">
+        <v>0.9184685069652168</v>
+      </c>
+      <c r="G33">
+        <v>223.9905338287354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>0.5856745683347966</v>
+      </c>
+      <c r="F34">
+        <v>0.6677207076318263</v>
+      </c>
+      <c r="G34">
+        <v>223.7058508396149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>0.5852014294996751</v>
+      </c>
+      <c r="F35">
+        <v>0.5018374497906162</v>
+      </c>
+      <c r="G35">
+        <v>221.5979051589966</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>0.5998571556111062</v>
+      </c>
+      <c r="F36">
+        <v>0.3664644047517307</v>
+      </c>
+      <c r="G36">
+        <v>220.8504903316498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>0.6250240987083092</v>
+      </c>
+      <c r="F37">
+        <v>0.2657892487821554</v>
+      </c>
+      <c r="G37">
+        <v>222.6041655540466</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>0.5936782808262049</v>
+      </c>
+      <c r="F38">
+        <v>0.169301769079566</v>
+      </c>
+      <c r="G38">
+        <v>221.1584522724152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>0.8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>0.611585839529464</v>
+      </c>
+      <c r="F39">
+        <v>0.09905136313135632</v>
+      </c>
+      <c r="G39">
+        <v>220.5624129772186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>0.5744110100303242</v>
+      </c>
+      <c r="F40">
+        <v>0.04572258781300742</v>
+      </c>
+      <c r="G40">
+        <v>219.531970500946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>0.5980727006586972</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>219.411238193512</v>
       </c>
     </row>
   </sheetData>
